--- a/Broad Air/36495/struct.xlsx
+++ b/Broad Air/36495/struct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Broad Air\36495\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F28C5C-2CE1-4438-98D7-D9661F911304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3C2723-82B7-4D2E-9DE4-D232FB0D71FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8520" yWindow="1425" windowWidth="26775" windowHeight="17745" xr2:uid="{AC5113EB-C6D5-4B97-9170-BBD284AC2BEC}"/>
+    <workbookView xWindow="8820" yWindow="1335" windowWidth="26775" windowHeight="17745" xr2:uid="{AC5113EB-C6D5-4B97-9170-BBD284AC2BEC}"/>
   </bookViews>
   <sheets>
     <sheet name="struct" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t>Ducting-Common Area [K]</t>
   </si>
   <si>
-    <t>Level 1</t>
-  </si>
-  <si>
     <t>Nurse Station</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t>Level 1 RACF- Lounge</t>
   </si>
   <si>
-    <t>Level 2</t>
-  </si>
-  <si>
     <t>201</t>
   </si>
   <si>
@@ -235,9 +229,6 @@
     <t>Level 2 RACF- Lounge</t>
   </si>
   <si>
-    <t>Level 3</t>
-  </si>
-  <si>
     <t>301</t>
   </si>
   <si>
@@ -308,6 +299,15 @@
   </si>
   <si>
     <t>folder-with-checklists</t>
+  </si>
+  <si>
+    <t>Level-1</t>
+  </si>
+  <si>
+    <t>Level-2</t>
+  </si>
+  <si>
+    <t>Level-3</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1323,7 @@
   <dimension ref="A1:P164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+      <selection activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E2" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>13</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E3" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="6" t="s">
@@ -1414,7 +1414,7 @@
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -1429,13 +1429,13 @@
     </row>
     <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -1447,13 +1447,13 @@
     </row>
     <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -1465,13 +1465,13 @@
     </row>
     <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -1483,13 +1483,13 @@
     </row>
     <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -1501,13 +1501,13 @@
     </row>
     <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -1519,13 +1519,13 @@
     </row>
     <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -1541,7 +1541,7 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -1555,13 +1555,13 @@
     </row>
     <row r="12" spans="1:16" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -1573,13 +1573,13 @@
     </row>
     <row r="13" spans="1:16" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -1591,13 +1591,13 @@
     </row>
     <row r="14" spans="1:16" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -1609,13 +1609,13 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -1627,13 +1627,13 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -1645,13 +1645,13 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>24</v>
@@ -1672,10 +1672,10 @@
         <v>25</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H18" s="7"/>
       <c r="J18" s="11" t="s">
@@ -1686,10 +1686,10 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1698,7 +1698,7 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -1712,379 +1712,379 @@
     </row>
     <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L34" s="7"/>
     </row>
     <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L35" s="7"/>
     </row>
     <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L36" s="7"/>
     </row>
     <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
       <c r="K39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L39" s="7"/>
     </row>
     <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L40" s="7"/>
     </row>
     <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L41" s="7"/>
     </row>
@@ -2094,7 +2094,7 @@
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F42" s="14"/>
       <c r="G42" s="14"/>
@@ -2108,385 +2108,385 @@
     </row>
     <row r="43" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L43" s="7"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L44" s="7"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L45" s="7"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L46" s="7"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L47" s="7"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L48" s="7"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L49" s="7"/>
     </row>
     <row r="50" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
       <c r="K50" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L50" s="7"/>
     </row>
     <row r="51" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L51" s="7"/>
     </row>
     <row r="52" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
       <c r="K52" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L52" s="7"/>
     </row>
     <row r="53" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
       <c r="K53" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L53" s="7"/>
     </row>
     <row r="54" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L54" s="7"/>
     </row>
     <row r="55" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L55" s="7"/>
     </row>
     <row r="56" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L56" s="7"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L57" s="7"/>
     </row>
     <row r="58" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L58" s="7"/>
     </row>
     <row r="59" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
       <c r="K59" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L59" s="7"/>
     </row>
     <row r="60" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
       <c r="K60" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L60" s="7"/>
     </row>
     <row r="61" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
       <c r="K61" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L61" s="7"/>
     </row>
     <row r="62" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
       <c r="K62" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L62" s="7"/>
     </row>
     <row r="63" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L63" s="7"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>24</v>
@@ -2495,10 +2495,10 @@
         <v>25</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H64" s="7"/>
       <c r="J64" s="11" t="s">
@@ -2510,11 +2510,11 @@
     <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
       <c r="E65" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="6" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="J65" s="7"/>
       <c r="K65" s="7"/>
@@ -2526,7 +2526,7 @@
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
       <c r="E66" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
@@ -2540,430 +2540,430 @@
     </row>
     <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L67" s="7"/>
     </row>
     <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L68" s="7"/>
     </row>
     <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
       <c r="K69" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L69" s="7"/>
     </row>
     <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
       <c r="K70" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L70" s="7"/>
     </row>
     <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
       <c r="K71" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L71" s="7"/>
     </row>
     <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
       <c r="K72" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L72" s="7"/>
     </row>
     <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
       <c r="K73" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L73" s="7"/>
     </row>
     <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
       <c r="K74" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L74" s="7"/>
     </row>
     <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
       <c r="K75" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L75" s="7"/>
     </row>
     <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
       <c r="K76" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L76" s="7"/>
     </row>
     <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
       <c r="K77" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L77" s="7"/>
     </row>
     <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L78" s="7"/>
     </row>
     <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
       <c r="K79" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L79" s="7"/>
     </row>
     <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L80" s="7"/>
     </row>
     <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
       <c r="K81" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L81" s="7"/>
     </row>
     <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
       <c r="K82" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L82" s="7"/>
     </row>
     <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
       <c r="K83" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L83" s="7"/>
     </row>
     <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
       <c r="K84" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L84" s="7"/>
     </row>
     <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="7"/>
       <c r="J85" s="7"/>
       <c r="K85" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L85" s="7"/>
     </row>
     <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
       <c r="K86" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L86" s="7"/>
     </row>
     <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
       <c r="K87" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L87" s="7"/>
     </row>
     <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="7"/>
       <c r="K88" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L88" s="7"/>
     </row>
     <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="7"/>
       <c r="K89" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L89" s="7"/>
     </row>
     <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H90" s="7"/>
       <c r="I90" s="7"/>
       <c r="K90" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L90" s="7"/>
     </row>
@@ -2973,7 +2973,7 @@
       <c r="C91" s="14"/>
       <c r="D91" s="14"/>
       <c r="E91" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F91" s="14"/>
       <c r="G91" s="14"/>
@@ -2987,436 +2987,436 @@
     </row>
     <row r="92" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="7"/>
       <c r="K92" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L92" s="7"/>
     </row>
     <row r="93" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
       <c r="K93" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L93" s="7"/>
     </row>
     <row r="94" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
       <c r="K94" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L94" s="7"/>
     </row>
     <row r="95" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
       <c r="K95" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L95" s="7"/>
     </row>
     <row r="96" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
       <c r="K96" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L96" s="7"/>
     </row>
     <row r="97" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
       <c r="K97" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L97" s="7"/>
     </row>
     <row r="98" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
       <c r="K98" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L98" s="7"/>
     </row>
     <row r="99" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="7"/>
       <c r="J99" s="7"/>
       <c r="K99" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L99" s="7"/>
     </row>
     <row r="100" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H100" s="7"/>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
       <c r="K100" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L100" s="7"/>
     </row>
     <row r="101" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H101" s="7"/>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
       <c r="K101" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L101" s="7"/>
     </row>
     <row r="102" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H102" s="7"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
       <c r="K102" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L102" s="7"/>
     </row>
     <row r="103" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
       <c r="K103" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L103" s="7"/>
     </row>
     <row r="104" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
       <c r="K104" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L104" s="7"/>
     </row>
     <row r="105" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
       <c r="K105" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L105" s="7"/>
     </row>
     <row r="106" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
       <c r="J106" s="7"/>
       <c r="K106" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L106" s="7"/>
     </row>
     <row r="107" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L107" s="7"/>
     </row>
     <row r="108" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
       <c r="K108" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L108" s="7"/>
     </row>
     <row r="109" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H109" s="7"/>
       <c r="I109" s="7"/>
       <c r="J109" s="7"/>
       <c r="K109" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L109" s="7"/>
     </row>
     <row r="110" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H110" s="7"/>
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
       <c r="K110" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L110" s="7"/>
     </row>
     <row r="111" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
       <c r="K111" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L111" s="7"/>
     </row>
     <row r="112" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
       <c r="K112" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L112" s="7"/>
     </row>
     <row r="113" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="7"/>
       <c r="J113" s="7"/>
       <c r="K113" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L113" s="7"/>
     </row>
     <row r="114" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H114" s="7"/>
       <c r="K114" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L114" s="7"/>
     </row>
     <row r="115" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H115" s="7"/>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
       <c r="K115" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L115" s="7"/>
     </row>
     <row r="116" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B116" s="12" t="s">
         <v>24</v>
@@ -3425,10 +3425,10 @@
         <v>25</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H116" s="7"/>
       <c r="J116" s="11" t="s">
@@ -3440,11 +3440,11 @@
     <row r="117" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="8"/>
       <c r="E117" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H117" s="7"/>
       <c r="I117" s="6" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
@@ -3456,7 +3456,7 @@
       <c r="C118" s="14"/>
       <c r="D118" s="14"/>
       <c r="E118" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F118" s="14"/>
       <c r="G118" s="14"/>
@@ -3470,323 +3470,323 @@
     </row>
     <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H119" s="7"/>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
       <c r="K119" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L119" s="7"/>
     </row>
     <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
       <c r="K120" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L120" s="7"/>
     </row>
     <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H121" s="7"/>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
       <c r="K121" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L121" s="7"/>
     </row>
     <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H122" s="7"/>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
       <c r="K122" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L122" s="7"/>
     </row>
     <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H123" s="7"/>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
       <c r="K123" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L123" s="7"/>
     </row>
     <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H124" s="7"/>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
       <c r="K124" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L124" s="7"/>
     </row>
     <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H125" s="7"/>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
       <c r="K125" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L125" s="7"/>
     </row>
     <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H126" s="7"/>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
       <c r="K126" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L126" s="7"/>
     </row>
     <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H127" s="7"/>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
       <c r="K127" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L127" s="7"/>
     </row>
     <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H128" s="7"/>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
       <c r="K128" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L128" s="7"/>
     </row>
     <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H129" s="7"/>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
       <c r="K129" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L129" s="7"/>
     </row>
     <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H130" s="7"/>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
       <c r="K130" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L130" s="7"/>
     </row>
     <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H131" s="7"/>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
       <c r="K131" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L131" s="7"/>
     </row>
     <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H132" s="7"/>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
       <c r="K132" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L132" s="7"/>
     </row>
     <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H133" s="7"/>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
       <c r="K133" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L133" s="7"/>
     </row>
     <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H134" s="7"/>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
       <c r="K134" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L134" s="7"/>
     </row>
     <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H135" s="7"/>
       <c r="I135" s="7"/>
       <c r="K135" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L135" s="7"/>
     </row>
     <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H136" s="7"/>
       <c r="I136" s="7"/>
       <c r="K136" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L136" s="7"/>
     </row>
@@ -3796,7 +3796,7 @@
       <c r="C137" s="14"/>
       <c r="D137" s="14"/>
       <c r="E137" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F137" s="14"/>
       <c r="G137" s="14"/>
@@ -3810,330 +3810,330 @@
     </row>
     <row r="138" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H138" s="7"/>
       <c r="I138" s="7"/>
       <c r="K138" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L138" s="7"/>
     </row>
     <row r="139" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H139" s="7"/>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
       <c r="K139" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L139" s="7"/>
     </row>
     <row r="140" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H140" s="7"/>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
       <c r="K140" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L140" s="7"/>
     </row>
     <row r="141" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H141" s="7"/>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
       <c r="K141" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L141" s="7"/>
     </row>
     <row r="142" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H142" s="7"/>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L142" s="7"/>
     </row>
     <row r="143" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H143" s="7"/>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
       <c r="K143" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L143" s="7"/>
     </row>
     <row r="144" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H144" s="7"/>
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
       <c r="K144" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L144" s="7"/>
     </row>
     <row r="145" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H145" s="7"/>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
       <c r="K145" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L145" s="7"/>
     </row>
     <row r="146" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H146" s="7"/>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
       <c r="K146" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L146" s="7"/>
     </row>
     <row r="147" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H147" s="7"/>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
       <c r="K147" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L147" s="7"/>
     </row>
     <row r="148" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H148" s="7"/>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
       <c r="K148" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L148" s="7"/>
     </row>
     <row r="149" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H149" s="7"/>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
       <c r="K149" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="L149" s="7"/>
     </row>
     <row r="150" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H150" s="7"/>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
       <c r="K150" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L150" s="7"/>
     </row>
     <row r="151" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H151" s="7"/>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
       <c r="K151" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L151" s="7"/>
     </row>
     <row r="152" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H152" s="7"/>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
       <c r="K152" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L152" s="7"/>
     </row>
     <row r="153" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H153" s="7"/>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
       <c r="K153" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L153" s="7"/>
     </row>
     <row r="154" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H154" s="7"/>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
       <c r="K154" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L154" s="7"/>
     </row>
     <row r="155" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H155" s="7"/>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
       <c r="K155" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L155" s="7"/>
     </row>
     <row r="156" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B156" s="12" t="s">
         <v>24</v>
@@ -4142,10 +4142,10 @@
         <v>25</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H156" s="7"/>
       <c r="J156" s="11" t="s">
@@ -4156,11 +4156,11 @@
     </row>
     <row r="157" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E157" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H157" s="7"/>
       <c r="I157" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -4169,7 +4169,7 @@
       <c r="C158" s="14"/>
       <c r="D158" s="14"/>
       <c r="E158" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F158" s="14"/>
       <c r="G158" s="14"/>
@@ -4183,37 +4183,37 @@
     </row>
     <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H159" s="7"/>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
       <c r="K159" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L159" s="7"/>
     </row>
     <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H160" s="7"/>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
       <c r="K160" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L160" s="7"/>
     </row>
@@ -4223,7 +4223,7 @@
       <c r="C161" s="14"/>
       <c r="D161" s="14"/>
       <c r="E161" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F161" s="14"/>
       <c r="G161" s="14"/>
@@ -4237,43 +4237,43 @@
     </row>
     <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H162" s="7"/>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
       <c r="K162" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L162" s="7"/>
     </row>
     <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H163" s="7"/>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
       <c r="K163" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L163" s="7"/>
     </row>
     <row r="164" spans="1:12" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B164" s="12" t="s">
         <v>24</v>
@@ -4282,10 +4282,10 @@
         <v>25</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H164" s="7"/>
       <c r="J164" s="11" t="s">
